--- a/Config/data_config/PlayerAvatar.xlsx
+++ b/Config/data_config/PlayerAvatar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16830" windowHeight="11700"/>
+    <workbookView windowWidth="28440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
